--- a/EXCEL Output/Assignment1.xlsx
+++ b/EXCEL Output/Assignment1.xlsx
@@ -48,8 +48,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -127,41 +133,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1" headerRowCount="1">
-  <autoFilter ref="A1:C1"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Measure Name"/>
-    <tableColumn id="2" name="Measure Expression"/>
-    <tableColumn id="3" name="Measure Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:D2" headerRowCount="1">
-  <autoFilter ref="A1:D2"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:F2" headerRowCount="1">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Relationships" displayName="Relationships" ref="A1:G1" headerRowCount="1">
-  <autoFilter ref="A1:G1"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="From Table"/>
-    <tableColumn id="2" name="From Column"/>
-    <tableColumn id="3" name="To Table"/>
-    <tableColumn id="4" name="To Column"/>
-    <tableColumn id="5" name="State"/>
-    <tableColumn id="6" name="Direction"/>
-    <tableColumn id="7" name="Cardinality"/>
+    <tableColumn id="5" name="Table Query"/>
+    <tableColumn id="6" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -451,33 +431,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40.8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Measure Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Measure Expression</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Measure Description</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No measures present in this file</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Table No</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Table Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Table Type</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Table Source</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Table Query</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Modification</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Query1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Sql.Database</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"MAQN0366\SQLEXPRESS", "AdventureWorks2012", </t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>"SELECT [FirstName],#(lf)       [MiddleName],#(lf)       [LastName],#(lf)       [Gender],#(lf)       [VacationHours],#(lf)       [SickLeaveHours],#(lf)       [MaritalStatus],#(lf)       [Department].[Name],#(lf)       [City]#(lf)FROM [AdventureWorks2012].[Person].[Person]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[Employee] ON [Person].[BusinessEntityID] = [Employee].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[EmployeeDepartmentHistory] ON [Employee].[BusinessEntityID] = [EmployeeDepartmentHistory].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[Department] ON [EmployeeDepartmentHistory].[DepartmentID] = [Department].[DepartmentID]#(lf)INNER JOIN [AdventureWorks2012].[Person].[BusinessEntityAddress] ON [Person].[BusinessEntityID] = [BusinessEntityAddress].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[Person].[Address] ON [BusinessEntityAddress].[AddressID] = [Address].[AddressID]#(lf)WHERE [MiddleName] IS NOT NULL;"]),</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Inserted Merged Column" = Table.AddColumn(Source, "EmployeeName", each Text.Combine({[FirstName], [MiddleName], [LastName]}, " "), type text),
+    #"Reordered Columns" = Table.ReorderColumns(#"Inserted Merged Column",{"EmployeeName", "FirstName", "MiddleName", "LastName", "Gender", "VacationHours", "SickLeaveHours", "MaritalStatus", "Name", "City"}),
+    #"Removed Columns" = Table.RemoveColumns(#"Reordered Columns",{"FirstName", "MiddleName", "LastName", "Gender", "City"}),
+    #"Renamed Columns" = Table.RenameColumns(#"Removed Columns",{{"Name", "DepartmentName"}}),
+    #"Added Custom" = Table.AddColumn(#"Renamed Columns", "VacationDays", each [VacationHours] / 8),
+    #"Added Custom1" = Table.AddColumn(#"Added Custom", "SickLeaveDays", each [SickLeaveHours]/8),
+    #"Inserted Round Up" = Table.AddColumn(#"Added Custom1", "Round Up", each Number.RoundUp([VacationDays]), Int64.Type),
+    #"Removed Columns1" = Table.RemoveColumns(#"Inserted Round Up",{"Round Up"}),
+    #"Rounded Off" = Table.TransformColumns(#"Removed Columns1",{{"VacationDays", each Number.Round(_, 2), type number}}),
+    #"Rounded Off1" = Table.TransformColumns(#"Rounded Off",{{"SickLeaveDays", each Number.Round(_, 2), type number}}),
+    #"Removed Columns2" = Table.RemoveColumns(#"Rounded Off1",{"VacationHours", "SickLeaveHours"}),
+    #"Reordered Columns1" = Table.ReorderColumns(#"Removed Columns2",{"EmployeeName", "DepartmentName", "VacationDays", "SickLeaveDays", "MaritalStatus"}),
+    #"Removed Columns3" = Table.RemoveColumns(#"Reordered Columns1",{"MaritalStatus"})
+in
+    #"Removed Columns3"</t>
         </is>
       </c>
     </row>
@@ -489,125 +565,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="46.8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Table No</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Table Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Table Type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Table Source</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Query1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sql.Database</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>"MAQN0366\SQLEXPRESS", "AdventureWorks2012", [Query="SELECT [FirstName],#(lf)ꃂ숀 ꃂ숀 ꃂ숀  [MiddleName],#(lf)ꃂ숀 ꃂ숀 ꃂ숀  [LastName],#(lf)ꃂ숀 ꃂ숀 ꃂ숀  [Gender],#(lf)ꃂ숀 ꃂ숀 ꃂ숀  [VacationHours],#(lf)ꃂ숀 ꃂ숀 ꃂ숀  [SickLeaveHours],#(lf)ꃂ숀 ꃂ숀 ꃂ숀  [MaritalStatus],#(lf)ꃂ숀 ꃂ숀 ꃂ숀  [Department].[Name],#(lf)ꃂ숀 ꃂ숀 ꃂ숀  [City]#(lf)FROM [AdventureWorks2012].[Person].[Person]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[Employee] ON [Person].[BusinessEntityID] = [Employee].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[EmployeeDepartmentHistory] ON [Employee].[BusinessEntityID] = [EmployeeDepartmentHistory].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[Department] ON [EmployeeDepartmentHistory].[DepartmentID] = [Department].[DepartmentID]#(lf)INNER JOIN [AdventureWorks2012].[Person].[BusinessEntityAddress] ON [Person].[BusinessEntityID] = [BusinessEntityAddress].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[Person].[Address] ON [BusinessEntityAddress].[AddressID] = [Address].[AddressID]#(lf)WHERE [MiddleName] IS NOT NULL;"</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No relationships present in this file</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>From Table</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>From Column</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>To Table</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>To Column</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Cardinality</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/EXCEL Output/Assignment1.xlsx
+++ b/EXCEL Output/Assignment1.xlsx
@@ -539,21 +539,20 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Inserted Merged Column" = Table.AddColumn(Source, "EmployeeName", each Text.Combine({[FirstName], [MiddleName], [LastName]}, " "), type text),
-    #"Reordered Columns" = Table.ReorderColumns(#"Inserted Merged Column",{"EmployeeName", "FirstName", "MiddleName", "LastName", "Gender", "VacationHours", "SickLeaveHours", "MaritalStatus", "Name", "City"}),
-    #"Removed Columns" = Table.RemoveColumns(#"Reordered Columns",{"FirstName", "MiddleName", "LastName", "Gender", "City"}),
-    #"Renamed Columns" = Table.RenameColumns(#"Removed Columns",{{"Name", "DepartmentName"}}),
-    #"Added Custom" = Table.AddColumn(#"Renamed Columns", "VacationDays", each [VacationHours] / 8),
-    #"Added Custom1" = Table.AddColumn(#"Added Custom", "SickLeaveDays", each [SickLeaveHours]/8),
-    #"Inserted Round Up" = Table.AddColumn(#"Added Custom1", "Round Up", each Number.RoundUp([VacationDays]), Int64.Type),
-    #"Removed Columns1" = Table.RemoveColumns(#"Inserted Round Up",{"Round Up"}),
-    #"Rounded Off" = Table.TransformColumns(#"Removed Columns1",{{"VacationDays", each Number.Round(_, 2), type number}}),
-    #"Rounded Off1" = Table.TransformColumns(#"Rounded Off",{{"SickLeaveDays", each Number.Round(_, 2), type number}}),
-    #"Removed Columns2" = Table.RemoveColumns(#"Rounded Off1",{"VacationHours", "SickLeaveHours"}),
-    #"Reordered Columns1" = Table.ReorderColumns(#"Removed Columns2",{"EmployeeName", "DepartmentName", "VacationDays", "SickLeaveDays", "MaritalStatus"}),
-    #"Removed Columns3" = Table.RemoveColumns(#"Reordered Columns1",{"MaritalStatus"})
-in
-    #"Removed Columns3"</t>
+          <t xml:space="preserve">1. #"Inserted Merged Column" = Table.AddColumn(Source, "EmployeeName", each Text.Combine({[FirstName], [MiddleName], [LastName]}, " "), type text),
+2. #"Reordered Columns" = Table.ReorderColumns(#"Inserted Merged Column",{"EmployeeName", "FirstName", "MiddleName", "LastName", "Gender", "VacationHours", "SickLeaveHours", "MaritalStatus", "Name", "City"}),
+3. #"Removed Columns" = Table.RemoveColumns(#"Reordered Columns",{"FirstName", "MiddleName", "LastName", "Gender", "City"}),
+4. #"Renamed Columns" = Table.RenameColumns(#"Removed Columns",{{"Name", "DepartmentName"}}),
+5. #"Added Custom" = Table.AddColumn(#"Renamed Columns", "VacationDays", each [VacationHours] / 8),
+6. #"Added Custom1" = Table.AddColumn(#"Added Custom", "SickLeaveDays", each [SickLeaveHours]/8),
+7. #"Inserted Round Up" = Table.AddColumn(#"Added Custom1", "Round Up", each Number.RoundUp([VacationDays]), Int64.Type),
+8. #"Removed Columns1" = Table.RemoveColumns(#"Inserted Round Up",{"Round Up"}),
+9. #"Rounded Off" = Table.TransformColumns(#"Removed Columns1",{{"VacationDays", each Number.Round(_, 2), type number}}),
+10. #"Rounded Off1" = Table.TransformColumns(#"Rounded Off",{{"SickLeaveDays", each Number.Round(_, 2), type number}}),
+11. #"Removed Columns2" = Table.RemoveColumns(#"Rounded Off1",{"VacationHours", "SickLeaveHours"}),
+12. #"Reordered Columns1" = Table.ReorderColumns(#"Removed Columns2",{"EmployeeName", "DepartmentName", "VacationDays", "SickLeaveDays", "MaritalStatus"}),
+13. #"Removed Columns3" = Table.RemoveColumns(#"Reordered Columns1",{"MaritalStatus"})
+</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment1.xlsx
+++ b/EXCEL Output/Assignment1.xlsx
@@ -133,15 +133,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:F2" headerRowCount="1">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-    <tableColumn id="5" name="Table Query"/>
-    <tableColumn id="6" name="Modification"/>
+    <tableColumn id="5" name="Original Table Name"/>
+    <tableColumn id="6" name="Table Query"/>
+    <tableColumn id="7" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +476,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,10 +506,15 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>Original Table Name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>Table Query</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Modification</t>
         </is>
@@ -534,10 +541,15 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> [AdventureWorks2012].[Person].[Person]</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>"SELECT [FirstName],#(lf)       [MiddleName],#(lf)       [LastName],#(lf)       [Gender],#(lf)       [VacationHours],#(lf)       [SickLeaveHours],#(lf)       [MaritalStatus],#(lf)       [Department].[Name],#(lf)       [City]#(lf)FROM [AdventureWorks2012].[Person].[Person]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[Employee] ON [Person].[BusinessEntityID] = [Employee].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[EmployeeDepartmentHistory] ON [Employee].[BusinessEntityID] = [EmployeeDepartmentHistory].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[Department] ON [EmployeeDepartmentHistory].[DepartmentID] = [Department].[DepartmentID]#(lf)INNER JOIN [AdventureWorks2012].[Person].[BusinessEntityAddress] ON [Person].[BusinessEntityID] = [BusinessEntityAddress].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[Person].[Address] ON [BusinessEntityAddress].[AddressID] = [Address].[AddressID]#(lf)WHERE [MiddleName] IS NOT NULL;"]),</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Inserted Merged Column" = Table.AddColumn(Source, "EmployeeName", each Text.Combine({[FirstName], [MiddleName], [LastName]}, " "), type text),
 2. #"Reordered Columns" = Table.ReorderColumns(#"Inserted Merged Column",{"EmployeeName", "FirstName", "MiddleName", "LastName", "Gender", "VacationHours", "SickLeaveHours", "MaritalStatus", "Name", "City"}),

--- a/EXCEL Output/Assignment1.xlsx
+++ b/EXCEL Output/Assignment1.xlsx
@@ -133,9 +133,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:H2" headerRowCount="1">
+  <autoFilter ref="A1:H2"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
@@ -143,6 +143,7 @@
     <tableColumn id="5" name="Original Table Name"/>
     <tableColumn id="6" name="Table Query"/>
     <tableColumn id="7" name="Modification"/>
+    <tableColumn id="8" name="Modification Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +482,7 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -519,6 +521,11 @@
           <t>Modification</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Modification Description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -546,7 +553,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>"SELECT [FirstName],#(lf)       [MiddleName],#(lf)       [LastName],#(lf)       [Gender],#(lf)       [VacationHours],#(lf)       [SickLeaveHours],#(lf)       [MaritalStatus],#(lf)       [Department].[Name],#(lf)       [City]#(lf)FROM [AdventureWorks2012].[Person].[Person]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[Employee] ON [Person].[BusinessEntityID] = [Employee].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[EmployeeDepartmentHistory] ON [Employee].[BusinessEntityID] = [EmployeeDepartmentHistory].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[HumanResources].[Department] ON [EmployeeDepartmentHistory].[DepartmentID] = [Department].[DepartmentID]#(lf)INNER JOIN [AdventureWorks2012].[Person].[BusinessEntityAddress] ON [Person].[BusinessEntityID] = [BusinessEntityAddress].[BusinessEntityID]#(lf)INNER JOIN [AdventureWorks2012].[Person].[Address] ON [BusinessEntityAddress].[AddressID] = [Address].[AddressID]#(lf)WHERE [MiddleName] IS NOT NULL;"]),</t>
+          <t>"SELECT [FirstName],        [MiddleName],        [LastName],        [Gender],        [VacationHours],        [SickLeaveHours],        [MaritalStatus],        [Department].[Name],        [City] FROM [AdventureWorks2012].[Person].[Person] INNER JOIN [AdventureWorks2012].[HumanResources].[Employee] ON [Person].[BusinessEntityID] = [Employee].[BusinessEntityID] INNER JOIN [AdventureWorks2012].[HumanResources].[EmployeeDepartmentHistory] ON [Employee].[BusinessEntityID] = [EmployeeDepartmentHistory].[BusinessEntityID] INNER JOIN [AdventureWorks2012].[HumanResources].[Department] ON [EmployeeDepartmentHistory].[DepartmentID] = [Department].[DepartmentID] INNER JOIN [AdventureWorks2012].[Person].[BusinessEntityAddress] ON [Person].[BusinessEntityID] = [BusinessEntityAddress].[BusinessEntityID] INNER JOIN [AdventureWorks2012].[Person].[Address] ON [BusinessEntityAddress].[AddressID] = [Address].[AddressID] WHERE [MiddleName] IS NOT NULL;"]),</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -565,6 +572,11 @@
 12. #"Reordered Columns1" = Table.ReorderColumns(#"Removed Columns2",{"EmployeeName", "DepartmentName", "VacationDays", "SickLeaveDays", "MaritalStatus"}),
 13. #"Removed Columns3" = Table.RemoveColumns(#"Reordered Columns1",{"MaritalStatus"})
 </t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>This code is combining three columns (FirstName, MiddleName, LastName) into one combined column (EmployeeName) while also removing some columns (FirstName,MiddleName, LastName, Gender and City) and adding two new columns (VacationDays and SickLeaveDays). The VacationHours and SickLeaveHours are also converted to days and rounded off to two decimal points. In the end, the table only contains names, department name, vacation days, and sick leave days.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment1.xlsx
+++ b/EXCEL Output/Assignment1.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This code is combining three columns (FirstName, MiddleName, LastName) into one combined column (EmployeeName) while also removing some columns (FirstName,MiddleName, LastName, Gender and City) and adding two new columns (VacationDays and SickLeaveDays). The VacationHours and SickLeaveHours are also converted to days and rounded off to two decimal points. In the end, the table only contains names, department name, vacation days, and sick leave days.</t>
+          <t>This section of code provides a way to use data from a source table to create a new table that changes the way the data is organized. It is taking columns like first names, middle names, last names, someone's gender, vacation hours, sick leave hours, marital status, a name, and a city, combining them into one column, then breaking the columns up in different ways to make the table more organized. It is also converting things like vacation hours into vacation days (by dividing by eight), and taking off columns that are no longer necessary, as well as rounding numbers in the table to make them easier to read.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment1.xlsx
+++ b/EXCEL Output/Assignment1.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This section of code provides a way to use data from a source table to create a new table that changes the way the data is organized. It is taking columns like first names, middle names, last names, someone's gender, vacation hours, sick leave hours, marital status, a name, and a city, combining them into one column, then breaking the columns up in different ways to make the table more organized. It is also converting things like vacation hours into vacation days (by dividing by eight), and taking off columns that are no longer necessary, as well as rounding numbers in the table to make them easier to read.</t>
+          <t>This is a process to create a new table with specific information. It starts by combining the FirstName, MiddleName, and LastName from the source table into one column called EmployeeName. The columns are then reordered to place the EmployeeName first. Then, columns for FirstName, MiddleName, LastName, Gender, and City are removed. The Name column is renamed to DepartmentName. VacationHours and SickLeaveHours columns are used to do calculations for VacationDays and SickLeaveDays, respectively. VacationDays and SickLeaveDays are rounded off and the original VacationHours and SickLeaveHours columns are removed. Lastly, the MaritalStatus column is removed and the columns are reordered again. The table that is created will have the following columns: EmployeeName, DepartmentName, VacationDays, SickLeaveDays.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment1.xlsx
+++ b/EXCEL Output/Assignment1.xlsx
@@ -479,7 +479,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
     <col width="80" customWidth="1" min="8" max="8"/>
@@ -548,7 +548,12 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [AdventureWorks2012].[Person].[Person]</t>
+          <t xml:space="preserve"> [AdventureWorks2012].[Person].[Person],
+ [AdventureWorks2012].[HumanResources].[Employee] ,
+ [AdventureWorks2012].[HumanResources].[EmployeeDepartmentHistory] ,
+ [AdventureWorks2012].[HumanResources].[Department] ,
+ [AdventureWorks2012].[Person].[BusinessEntityAddress] ,
+ [AdventureWorks2012].[Person].[Address] </t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -576,7 +581,20 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This is a process to create a new table with specific information. It starts by combining the FirstName, MiddleName, and LastName from the source table into one column called EmployeeName. The columns are then reordered to place the EmployeeName first. Then, columns for FirstName, MiddleName, LastName, Gender, and City are removed. The Name column is renamed to DepartmentName. VacationHours and SickLeaveHours columns are used to do calculations for VacationDays and SickLeaveDays, respectively. VacationDays and SickLeaveDays are rounded off and the original VacationHours and SickLeaveHours columns are removed. Lastly, the MaritalStatus column is removed and the columns are reordered again. The table that is created will have the following columns: EmployeeName, DepartmentName, VacationDays, SickLeaveDays.</t>
+          <t xml:space="preserve">1. The new column "EmployeeName" combines the FirstName, MiddleName, and LastName columns from the Source table with a space between them.
+2. The table has been rearranged so that the columns appear in the order of “EmployeeName, FirstName, MiddleName, LastName, Gender, VacationHours, SickLeaveHours, MaritalStatus, Name, City”.
+3. This function will remove certain columns (e.g. FirstName, MiddleName, LastName, Gender, and City) from a table previously reordered.
+4. The column "Name" in the table "Removed Columns" has been changed to "DepartmentName".
+5. This adds a new column to the table that calculates the number of vacation days based on the vacation hours column.
+6. The "SickLeaveDays" column was added to the table and the value for each row was calculated by dividing the value from the "SickLeaveHours" column by 8.
+7. "Round Up" was added as a new column that rounds up the previously added "VacationDays" and stores each result as an integer data type.
+8. "Removed Columns1" is a table that no longer contains the column named "Round Up".
+9. This sentence means that a column called "VacationDays" is being rounded off to two decimal places and converted to a number type.
+10. "Rounded Off1" rounds the number in the column "SickLeaveDays" to 2 decimal places.
+11. The "Removed Columns2" step removes the columns "VacationHours" and "SickLeaveHours" from the table "Rounded Off1".
+12. "Reordered Columns1" rearranges the EmployeeName, DepartmentName, VacationDays, SickLeaveDays, and MaritalStatus columns of the Removed Columns2 table.
+13. This statement removes the column "MaritalStatus" from the table "Reordered Columns1".
+</t>
         </is>
       </c>
     </row>
